--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Sno</t>
   </si>
@@ -84,25 +84,25 @@
     <t>Fahrenheit</t>
   </si>
   <si>
+    <t>Humidity: 77%</t>
+  </si>
+  <si>
     <t>Temp in Degrees: 32</t>
   </si>
   <si>
     <t>Temp in Fahrenheit: 90</t>
   </si>
   <si>
-    <t>Humidity: 67%</t>
-  </si>
-  <si>
-    <t>Temp in Degrees: 35</t>
-  </si>
-  <si>
-    <t>Temp in Fahrenheit: 95</t>
-  </si>
-  <si>
-    <t>Humidity: 58%</t>
-  </si>
-  <si>
-    <t>Humidity: 77%</t>
+    <t>Humidity: 84%</t>
+  </si>
+  <si>
+    <t>Temp in Degrees: 25</t>
+  </si>
+  <si>
+    <t>Temp in Fahrenheit: 77</t>
+  </si>
+  <si>
+    <t>Humidity: 92%</t>
   </si>
   <si>
     <t>Temp in Degrees: 28</t>
@@ -111,40 +111,38 @@
     <t>Temp in Fahrenheit: 82</t>
   </si>
   <si>
-    <t>Humidity: 60%</t>
-  </si>
-  <si>
-    <t>Humidity: 44%</t>
-  </si>
-  <si>
-    <t>Temp in Degrees: 38</t>
-  </si>
-  <si>
-    <t>Temp in Fahrenheit: 100</t>
-  </si>
-  <si>
-    <t>Humidity: 73%</t>
-  </si>
-  <si>
-    <t>Temp in Degrees: 26</t>
-  </si>
-  <si>
-    <t>Temp in Fahrenheit: 79</t>
-  </si>
-  <si>
-    <t>Humidity: 49%</t>
-  </si>
-  <si>
-    <t>Temp in Degrees: 36</t>
-  </si>
-  <si>
-    <t>Temp in Fahrenheit: 97</t>
+    <t>Humidity: 87%</t>
+  </si>
+  <si>
+    <t>Temp in Degrees: 29</t>
+  </si>
+  <si>
+    <t>Temp in Fahrenheit: 84</t>
+  </si>
+  <si>
+    <t>Humidity: 82%</t>
+  </si>
+  <si>
+    <t>Humidity: 86%</t>
+  </si>
+  <si>
+    <t>Temp in Degrees: 24</t>
+  </si>
+  <si>
+    <t>Temp in Fahrenheit: 75</t>
+  </si>
+  <si>
+    <t>Humidity: 79%</t>
+  </si>
+  <si>
+    <t>Humidity: 69%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,16 +479,16 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,13 +516,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -535,13 +533,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -555,10 +553,10 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -572,10 +570,10 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,13 +584,13 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -623,10 +621,10 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,13 +635,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
